--- a/rhea_questions_50.xlsx
+++ b/rhea_questions_50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/talhatahmid/Desktop/Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAC3D40-D635-3B4E-811C-D0F43D45E5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA66DBB-B1A0-3F4F-96A4-3B96EB26BD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="243">
   <si>
     <t>qid</t>
   </si>
@@ -2204,15 +2204,6 @@
     <t>judgment</t>
   </si>
   <si>
-    <t>why_mcp_better_auto</t>
-  </si>
-  <si>
-    <t>Cites 124 more Rhea reaction IDs, making the answer verifiable.</t>
-  </si>
-  <si>
-    <t>Cites 80 more Rhea reaction IDs, making the answer verifiable.</t>
-  </si>
-  <si>
     <t>Cites 2 more Rhea reaction IDs, making the answer verifiable.</t>
   </si>
   <si>
@@ -2255,12 +2246,6 @@
     <t>Cites 25 more Rhea reaction IDs, making the answer verifiable.</t>
   </si>
   <si>
-    <t>Cites 32 more Rhea reaction IDs, making the answer verifiable.</t>
-  </si>
-  <si>
-    <t>Includes a concrete balanced reaction equation, while Base does not. Cites 22 more Rhea reaction IDs, making the answer verifiable.</t>
-  </si>
-  <si>
     <t>Cites 14 more Rhea reaction IDs, making the answer verifiable.</t>
   </si>
   <si>
@@ -2274,6 +2259,24 @@
   </si>
   <si>
     <t>Includes a concrete balanced reaction equation, while Base does not. Cites 2 more Rhea reaction IDs, making the answer verifiable. Covers a broader set of relevant reactions in a clearer, itemized list.</t>
+  </si>
+  <si>
+    <t>why_mcp_better</t>
+  </si>
+  <si>
+    <t>MCP reads like a database-backed answer: it surfaces a wide, organized set I can verify quickly, whereas Base feels like a few hand-picked examples. I trust MCP more for breadth and checkability.</t>
+  </si>
+  <si>
+    <t>MCP gives me confidence by enumerating many relevant reactions with traceable IDs; Base feels incomplete and leaves me wondering what’s missing. The MCP list better matches the “which reactions” intent.</t>
+  </si>
+  <si>
+    <t>MCP balances coverage and verifiability—there’s enough substance to act on, and I can spot-check entries. Base is too thin for this query and doesn’t help me follow up.</t>
+  </si>
+  <si>
+    <t>MCP nails the exact balanced equation and anchors it with identifiers; Base talks around it. For chemistry questions, that precision is the difference between “useful” and “maybe”.</t>
+  </si>
+  <si>
+    <t>Both try to list reactions, but MCP pushes further and stays organized, so I can actually use it. Base adds some items but doesn’t give me the same confidence to cite or reproduce.</t>
   </si>
 </sst>
 </file>
@@ -2330,16 +2333,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2648,8 +2651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2658,20 +2661,20 @@
     <col min="3" max="3" width="22.5" customWidth="1"/>
     <col min="4" max="4" width="59.1640625" customWidth="1"/>
     <col min="5" max="6" width="51.1640625" customWidth="1"/>
-    <col min="7" max="7" width="50.6640625" customWidth="1"/>
+    <col min="7" max="7" width="50.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" customWidth="1"/>
     <col min="9" max="9" width="21.5" customWidth="1"/>
     <col min="10" max="10" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -2683,8 +2686,8 @@
       <c r="F1" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="G1" t="s">
-        <v>218</v>
+      <c r="G1" s="6" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2726,8 +2729,8 @@
       <c r="F3" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G3" t="s">
-        <v>219</v>
+      <c r="G3" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
@@ -2749,8 +2752,8 @@
       <c r="F4" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G4" t="s">
-        <v>220</v>
+      <c r="G4" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="240" x14ac:dyDescent="0.2">
@@ -2772,8 +2775,8 @@
       <c r="F5" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G5" t="s">
-        <v>221</v>
+      <c r="G5" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
@@ -2795,8 +2798,8 @@
       <c r="F6" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G6" t="s">
-        <v>222</v>
+      <c r="G6" s="1" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
@@ -2818,8 +2821,8 @@
       <c r="F7" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G7" t="s">
-        <v>223</v>
+      <c r="G7" s="1" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
@@ -2841,8 +2844,8 @@
       <c r="F8" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G8" t="s">
-        <v>224</v>
+      <c r="G8" s="1" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
@@ -2864,8 +2867,8 @@
       <c r="F9" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G9" t="s">
-        <v>225</v>
+      <c r="G9" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
@@ -2927,8 +2930,8 @@
       <c r="F12" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G12" t="s">
-        <v>226</v>
+      <c r="G12" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="288" x14ac:dyDescent="0.2">
@@ -2950,8 +2953,8 @@
       <c r="F13" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G13" t="s">
-        <v>227</v>
+      <c r="G13" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="272" x14ac:dyDescent="0.2">
@@ -2973,8 +2976,8 @@
       <c r="F14" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G14" t="s">
-        <v>228</v>
+      <c r="G14" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="160" x14ac:dyDescent="0.2">
@@ -3016,8 +3019,8 @@
       <c r="F16" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G16" t="s">
-        <v>229</v>
+      <c r="G16" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="365" x14ac:dyDescent="0.2">
@@ -3033,10 +3036,10 @@
       <c r="D17" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3059,8 +3062,8 @@
       <c r="F18" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G18" t="s">
-        <v>230</v>
+      <c r="G18" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
@@ -3102,8 +3105,8 @@
       <c r="F20" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G20" t="s">
-        <v>224</v>
+      <c r="G20" s="1" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="365" x14ac:dyDescent="0.2">
@@ -3165,8 +3168,8 @@
       <c r="F23" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G23" t="s">
-        <v>231</v>
+      <c r="G23" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -3262,10 +3265,10 @@
       <c r="D28" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3328,8 +3331,8 @@
       <c r="F31" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G31" t="s">
-        <v>232</v>
+      <c r="G31" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="288" x14ac:dyDescent="0.2">
@@ -3342,7 +3345,7 @@
       <c r="C32" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>200</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -3371,8 +3374,8 @@
       <c r="F33" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G33" t="s">
-        <v>233</v>
+      <c r="G33" s="1" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
@@ -3394,8 +3397,8 @@
       <c r="F34" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G34" t="s">
-        <v>223</v>
+      <c r="G34" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
@@ -3417,6 +3420,9 @@
       <c r="F35" s="1" t="s">
         <v>216</v>
       </c>
+      <c r="G35" s="1" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
@@ -3437,6 +3443,9 @@
       <c r="F36" s="1" t="s">
         <v>216</v>
       </c>
+      <c r="G36" s="1" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
@@ -3477,8 +3486,8 @@
       <c r="F38" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G38" t="s">
-        <v>234</v>
+      <c r="G38" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
@@ -3500,9 +3509,6 @@
       <c r="F39" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G39" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="40" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
@@ -3523,9 +3529,6 @@
       <c r="F40" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G40" t="s">
-        <v>236</v>
-      </c>
     </row>
     <row r="41" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
@@ -3586,8 +3589,8 @@
       <c r="F43" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G43" t="s">
-        <v>237</v>
+      <c r="G43" s="1" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="208" x14ac:dyDescent="0.2">
@@ -3609,8 +3612,8 @@
       <c r="F44" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G44" t="s">
-        <v>238</v>
+      <c r="G44" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="160" x14ac:dyDescent="0.2">
@@ -3652,8 +3655,8 @@
       <c r="F46" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G46" t="s">
-        <v>239</v>
+      <c r="G46" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="208" x14ac:dyDescent="0.2">
@@ -3672,8 +3675,8 @@
       <c r="F47" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G47" t="s">
-        <v>240</v>
+      <c r="G47" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="128" x14ac:dyDescent="0.2">
@@ -3755,28 +3758,28 @@
       <c r="F51" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G51" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G51" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="D52" s="1"/>
       <c r="F52" t="s">
         <v>215</v>
       </c>
-      <c r="G52" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G52" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="D53" s="1"/>
       <c r="F53" t="s">
         <v>215</v>
       </c>
-      <c r="G53" t="s">
-        <v>221</v>
+      <c r="G53" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -3787,13 +3790,13 @@
         <v>216</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="D55" s="1"/>
       <c r="F55" t="s">
         <v>215</v>
       </c>
-      <c r="G55" t="s">
-        <v>227</v>
+      <c r="G55" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
